--- a/chapters/figures/summary_tables.xlsx
+++ b/chapters/figures/summary_tables.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaleach/Documents/GitHub/master_thesis_rs_meta-analysis/chapters/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F04FE5-9912-6940-ADF7-A3C0BB7D05C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BCE17-0950-E74D-9F62-57505494796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D53CD6A7-BED1-AD4C-A362-33545DCDCAA5}"/>
+    <workbookView xWindow="32280" yWindow="1980" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{D53CD6A7-BED1-AD4C-A362-33545DCDCAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="revs" sheetId="2" r:id="rId1"/>
-    <sheet name="ML_cat" sheetId="3" r:id="rId2"/>
-    <sheet name="keywords" sheetId="4" r:id="rId3"/>
-    <sheet name="PICOTS" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="multimodel_inference_results" sheetId="6" r:id="rId3"/>
+    <sheet name="ML_cat" sheetId="3" r:id="rId4"/>
+    <sheet name="keywords" sheetId="4" r:id="rId5"/>
+    <sheet name="PICOTS" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
   <si>
     <t>Title</t>
   </si>
@@ -215,9 +217,6 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>Application of ML models to remote sensing data.</t>
-  </si>
-  <si>
     <t>Comparison</t>
   </si>
   <si>
@@ -227,9 +226,6 @@
     <t>Outcomes</t>
   </si>
   <si>
-    <t>Variability in the OA of ML models in monitoring SDGs.</t>
-  </si>
-  <si>
     <t>Timing</t>
   </si>
   <si>
@@ -243,13 +239,397 @@
   </si>
   <si>
     <t>Predict a numeric (discrete or continuous) response variable based on input variables, similar to classification but with numeric outputs. An example is predicting crop yield from Earch Observation image data.</t>
+  </si>
+  <si>
+    <t>Application of machine learning models to remote sensing data.</t>
+  </si>
+  <si>
+    <t>Variability in the overall accuracy of machine learning models in monitoring SDGs.</t>
+  </si>
+  <si>
+    <t>Number of Citations</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Not Reported</t>
+  </si>
+  <si>
+    <t>Tree-Based Models</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>Pixel-level</t>
+  </si>
+  <si>
+    <t>SDG2: Zero Hunger</t>
+  </si>
+  <si>
+    <t>SDG15: Life on Land</t>
+  </si>
+  <si>
+    <t>10-30 metres</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Publication Year</t>
+  </si>
+  <si>
+    <t>Number of Classes</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Reported</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Majority-class Proportion</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>z.value</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancillary Data Included </t>
+  </si>
+  <si>
+    <t>Ancillary Data (Remote Sensing Only)</t>
+  </si>
+  <si>
+    <t>Number of Spectral Bands  (Low)</t>
+  </si>
+  <si>
+    <t>Confusion Matrix (Not reported)</t>
+  </si>
+  <si>
+    <t>Remote Sensing Type (Active)</t>
+  </si>
+  <si>
+    <t>SDG Theme (SDG11:Sustainable Cities)</t>
+  </si>
+  <si>
+    <t>Model Group (Neural Networks)</t>
+  </si>
+  <si>
+    <t>Device Group (Landsat)</t>
+  </si>
+  <si>
+    <t>Classification Type (Object-level)</t>
+  </si>
+  <si>
+    <t>Indices (Not Used)</t>
+  </si>
+  <si>
+    <t>Spatial Resolution ( &lt;1 metre)</t>
+  </si>
+  <si>
+    <t>Study/Author (Year)</t>
+  </si>
+  <si>
+    <t>Research Focus</t>
+  </si>
+  <si>
+    <t>Remote Sensing Methods/Models Used</t>
+  </si>
+  <si>
+    <t>Data Inputs</t>
+  </si>
+  <si>
+    <t>Study Area (Location)</t>
+  </si>
+  <si>
+    <t>Data Timeframe</t>
+  </si>
+  <si>
+    <t>Performance Metrics</t>
+  </si>
+  <si>
+    <t>Findings on Model Performance</t>
+  </si>
+  <si>
+    <t>Data Enhancement Techniques</t>
+  </si>
+  <si>
+    <t>Best Performing Model</t>
+  </si>
+  <si>
+    <t>Limitations/Challenges</t>
+  </si>
+  <si>
+    <t>Khatami et al. (2016)</t>
+  </si>
+  <si>
+    <t>Meta-analysis of supervised pixel-based land-cover classification</t>
+  </si>
+  <si>
+    <t>SVM, Neural Networks (NN), Random Forest (RF), Maximum Likelihood (ML)</t>
+  </si>
+  <si>
+    <t>Satellite imagery, texture information, ancillary data</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>1998-2012</t>
+  </si>
+  <si>
+    <t>Accuracy, % accuracy gain</t>
+  </si>
+  <si>
+    <t>SVM showed highest accuracy; texture data improved accuracy by 12.1%</t>
+  </si>
+  <si>
+    <t>Use of texture data, multi-angle and multi-temporal imagery</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Variability in classifier performance depending on input data and study context</t>
+  </si>
+  <si>
+    <t>Anshuka et al. (2019)</t>
+  </si>
+  <si>
+    <t>Drought forecasting using statistical models with SPI</t>
+  </si>
+  <si>
+    <t>Wavelet Neural Networks (WANN), ANN, ARIMA/SARIMA, Support Vector Machine (SVM), Markov Models (MM)</t>
+  </si>
+  <si>
+    <t>Standardized Precipitation Index (SPI), climate indices</t>
+  </si>
+  <si>
+    <t>China, Sicily, India</t>
+  </si>
+  <si>
+    <t>Varies per study, generally &gt; 30 years of data</t>
+  </si>
+  <si>
+    <t>R², RMSE</t>
+  </si>
+  <si>
+    <t>WANN model showed best performance, ARIMA/SARIMA performed worst</t>
+  </si>
+  <si>
+    <t>Wavelet transformation, climate indices incorporation</t>
+  </si>
+  <si>
+    <t>Wavelet-based ANN (WANN)</t>
+  </si>
+  <si>
+    <t>Geographical variation impacts results, model complexity requires careful preprocessing</t>
+  </si>
+  <si>
+    <t>Eskandari et al. (2020)</t>
+  </si>
+  <si>
+    <t>Meta-analysis of UAV imagery for agro-environmental monitoring using machine learning</t>
+  </si>
+  <si>
+    <t>SVM, Random Forest (RF), k-NN, Decision Trees (DT), ANN, Linear Regression</t>
+  </si>
+  <si>
+    <t>UAV-based imagery, multispectral, hyperspectral, LiDAR, visible sensors</t>
+  </si>
+  <si>
+    <t>Global, focused on agriculture, forestry, grasslands, wetlands</t>
+  </si>
+  <si>
+    <t>2000-2019</t>
+  </si>
+  <si>
+    <t>Overall accuracy, Kappa coefficient, R², RMSE, MAE</t>
+  </si>
+  <si>
+    <t>Visible sensors were most commonly used with high spatial resolution; regression methods (64%) were favored over classification (36%)</t>
+  </si>
+  <si>
+    <t>Use of high-resolution UAV imagery, sensor calibration, multi-source data integration</t>
+  </si>
+  <si>
+    <t>Random Forest and SVM performed well across multiple applications</t>
+  </si>
+  <si>
+    <t>Payload weight limitations, short flight time, variability in sensor calibration, weather conditions affecting accuracy</t>
+  </si>
+  <si>
+    <t>Hall et al. (2023)</t>
+  </si>
+  <si>
+    <t>Review of machine learning and satellite imagery for poverty prediction</t>
+  </si>
+  <si>
+    <t>Deep learning, machine learning, satellite imagery (NTL, daytime)</t>
+  </si>
+  <si>
+    <t>Satellite imagery (NTL, daytime), household surveys</t>
+  </si>
+  <si>
+    <t>Global (focus on low-income regions)</t>
+  </si>
+  <si>
+    <t>Varies by study</t>
+  </si>
+  <si>
+    <t>Predictive power (accuracy increase with pre-processing steps, AI model)</t>
+  </si>
+  <si>
+    <t>Combining ML and DL increases predictive power by 15 percentage points</t>
+  </si>
+  <si>
+    <t>Pre-processing, multiple datasets, feature extraction</t>
+  </si>
+  <si>
+    <t>Deep Learning models with multi-source data</t>
+  </si>
+  <si>
+    <t>Limited labelled training data, context-specific results</t>
+  </si>
+  <si>
+    <t>Jafarzadeh et al. (2022)</t>
+  </si>
+  <si>
+    <t>Meta-analysis of RS and ML tools for wetland monitoring</t>
+  </si>
+  <si>
+    <t>Ensemble learning, deep learning, decision tree, SVM, Random Forest</t>
+  </si>
+  <si>
+    <t>Optical and radar imagery (Landsat, Sentinel, MODIS)</t>
+  </si>
+  <si>
+    <t>1990-2022</t>
+  </si>
+  <si>
+    <t>Overall accuracy, Kappa coefficient, F1-score</t>
+  </si>
+  <si>
+    <t>RS and ML improve wetland monitoring, integration of sensors is key</t>
+  </si>
+  <si>
+    <t>Multi-source data integration, sensor fusion</t>
+  </si>
+  <si>
+    <t>Random Forest, SVM</t>
+  </si>
+  <si>
+    <t>Lack of standardized protocols for wetland monitoring</t>
+  </si>
+  <si>
+    <t>Kumari &amp; Karthikeyan (2023)</t>
+  </si>
+  <si>
+    <t>Meta-analysis of Sentinel-2 data for land use/land cover mapping</t>
+  </si>
+  <si>
+    <t>CNN, RNN, Random Forest, SVM</t>
+  </si>
+  <si>
+    <t>Sentinel-2 multispectral data</t>
+  </si>
+  <si>
+    <t>Global (focus on agriculture, forest, water)</t>
+  </si>
+  <si>
+    <t>2015-present</t>
+  </si>
+  <si>
+    <t>Accuracy, precision</t>
+  </si>
+  <si>
+    <t>High accuracy (&gt; 80%) for LULC classification using RF and SVM</t>
+  </si>
+  <si>
+    <t>Pre-processing (geometric, atmospheric correction), sensor fusion</t>
+  </si>
+  <si>
+    <t>Mismatch between Sentinel-2 and other datasets</t>
+  </si>
+  <si>
+    <t>Mukonza &amp; Chiang (2023)</t>
+  </si>
+  <si>
+    <t>Meta-analysis of satellite observations for water quality monitoring</t>
+  </si>
+  <si>
+    <t>Deep neural networks, XGBoost, Random Forest</t>
+  </si>
+  <si>
+    <t>Multi-sensor data fusion (MSI, OLCI, MODIS)</t>
+  </si>
+  <si>
+    <t>Global (focus on water bodies)</t>
+  </si>
+  <si>
+    <t>2005-present</t>
+  </si>
+  <si>
+    <t>RMSE, R², accuracy</t>
+  </si>
+  <si>
+    <t>DNN and XGBoost perform best for water quality monitoring</t>
+  </si>
+  <si>
+    <t>Data fusion, cloud-based platforms, high-performance computing</t>
+  </si>
+  <si>
+    <t>Deep Neural Networks, XGBoost</t>
+  </si>
+  <si>
+    <t>Challenges with large geospatial data processing, need for high-performance computing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +659,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -334,6 +727,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +1075,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,10 +1212,911 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1674EE0-5CC4-9641-855E-0AC489CF4A8E}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="22.1640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="71" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="43" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17773419-DF15-6849-83CC-4AE0F73B0DB0}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="E2" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6.15</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-0.12</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.33</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B0102-44F6-F04C-B47E-B0F3E7507F6B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -869,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62555009-5C44-7F46-AF79-9A7B296066C7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -935,12 +2237,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED4023-62EF-3F44-8F3C-62369359CF5F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,39 +2268,39 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
